--- a/SourceData/famplan/FPModData.xlsx
+++ b/SourceData/famplan/FPModData.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Proj\Spectrum\Tools\DefaultDataManager\FP\ModData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Proj\Spec5\ModData\FP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB8427C6-B18D-4BEF-BBA4-C9D0D6BDFC0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11760" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Tags" sheetId="1" r:id="rId1"/>
@@ -21,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="269">
   <si>
     <t>TG_General</t>
   </si>
@@ -828,15 +827,12 @@
   </si>
   <si>
     <t>FP_LAM</t>
-  </si>
-  <si>
-    <t>FP_inj3month</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1314,7 +1310,8 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
@@ -1671,7 +1668,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B118"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2630,873 +2627,843 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:J27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21.85546875" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C1" t="s">
+      <c r="A1" s="1"/>
+      <c r="C1" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="1" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="1">
         <v>0</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="2">
         <v>0.83</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="2">
         <v>0.83</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2" s="2">
         <v>0.83</v>
       </c>
-      <c r="F2" s="1">
+      <c r="F2" s="2">
         <v>0.83</v>
       </c>
-      <c r="G2" s="1">
+      <c r="G2" s="2">
         <v>0.83</v>
       </c>
-      <c r="H2" s="1">
+      <c r="H2" s="2">
         <v>0.83</v>
       </c>
-      <c r="I2" s="1">
+      <c r="I2" s="2">
         <v>0.83</v>
       </c>
-      <c r="J2" s="1">
+      <c r="J2" s="2">
         <v>0.83</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="1">
         <v>1</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="2">
         <v>0.90200000000000002</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="2">
         <v>0.90200000000000002</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3" s="2">
         <v>0.90200000000000002</v>
       </c>
-      <c r="F3" s="1">
+      <c r="F3" s="2">
         <v>0.90200000000000002</v>
       </c>
-      <c r="G3" s="1">
+      <c r="G3" s="2">
         <v>0.90200000000000002</v>
       </c>
-      <c r="H3" s="1">
+      <c r="H3" s="2">
         <v>0.90200000000000002</v>
       </c>
-      <c r="I3" s="1">
+      <c r="I3" s="2">
         <v>0.90200000000000002</v>
       </c>
-      <c r="J3" s="1">
+      <c r="J3" s="2">
         <v>0.90200000000000002</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="1">
         <v>2</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="2">
         <v>0.90200000000000002</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="2">
         <v>0.90200000000000002</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4" s="2">
         <v>0.90200000000000002</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F4" s="2">
         <v>0.90200000000000002</v>
       </c>
-      <c r="G4" s="1">
+      <c r="G4" s="2">
         <v>0.90200000000000002</v>
       </c>
-      <c r="H4" s="1">
+      <c r="H4" s="2">
         <v>0.90200000000000002</v>
       </c>
-      <c r="I4" s="1">
+      <c r="I4" s="2">
         <v>0.90200000000000002</v>
       </c>
-      <c r="J4" s="1">
+      <c r="J4" s="2">
         <v>0.90200000000000002</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="1">
         <v>21</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="2">
         <v>0.98799999999999999</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="2">
         <v>0.97400000000000009</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5" s="2">
         <v>0.98199999999999998</v>
       </c>
-      <c r="F5" s="1">
+      <c r="F5" s="2">
         <v>0.99099999999999999</v>
       </c>
-      <c r="G5" s="1">
+      <c r="G5" s="2">
         <v>0.9890000000000001</v>
       </c>
-      <c r="H5" s="1">
+      <c r="H5" s="2">
         <v>0.995</v>
       </c>
-      <c r="I5" s="1">
+      <c r="I5" s="2">
         <v>1</v>
       </c>
-      <c r="J5" s="1">
+      <c r="J5" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="A6" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="1">
         <v>22</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="2">
         <v>0.98799999999999999</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="2">
         <v>0.97400000000000009</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6" s="2">
         <v>0.98199999999999998</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F6" s="2">
         <v>0.99099999999999999</v>
       </c>
-      <c r="G6" s="1">
+      <c r="G6" s="2">
         <v>0.9890000000000001</v>
       </c>
-      <c r="H6" s="1">
+      <c r="H6" s="2">
         <v>0.995</v>
       </c>
-      <c r="I6" s="1">
+      <c r="I6" s="2">
         <v>1</v>
       </c>
-      <c r="J6" s="1">
+      <c r="J6" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="A7" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="1">
         <v>18</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="2">
         <v>0.93700000000000006</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7" s="2">
         <v>0.92099999999999993</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7" s="2">
         <v>0.93200000000000005</v>
       </c>
-      <c r="F7" s="1">
+      <c r="F7" s="2">
         <v>0.94099999999999995</v>
       </c>
-      <c r="G7" s="1">
+      <c r="G7" s="2">
         <v>0.94</v>
       </c>
-      <c r="H7" s="1">
+      <c r="H7" s="2">
         <v>0.94200000000000006</v>
       </c>
-      <c r="I7" s="1">
+      <c r="I7" s="2">
         <v>0.98</v>
       </c>
-      <c r="J7" s="1">
+      <c r="J7" s="2">
         <v>0.98</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="A8" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="1">
         <v>19</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8" s="2">
         <v>0.93700000000000006</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8" s="2">
         <v>0.92099999999999993</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8" s="2">
         <v>0.93200000000000005</v>
       </c>
-      <c r="F8" s="1">
+      <c r="F8" s="2">
         <v>0.94099999999999995</v>
       </c>
-      <c r="G8" s="1">
+      <c r="G8" s="2">
         <v>0.94</v>
       </c>
-      <c r="H8" s="1">
+      <c r="H8" s="2">
         <v>0.94200000000000006</v>
       </c>
-      <c r="I8" s="1">
+      <c r="I8" s="2">
         <v>0.98</v>
       </c>
-      <c r="J8" s="1">
+      <c r="J8" s="2">
         <v>0.98</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="A9" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="1">
         <v>20</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9" s="2">
         <v>0.93700000000000006</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9" s="2">
         <v>0.92099999999999993</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E9" s="2">
         <v>0.93200000000000005</v>
       </c>
-      <c r="F9" s="1">
+      <c r="F9" s="2">
         <v>0.94099999999999995</v>
       </c>
-      <c r="G9" s="1">
+      <c r="G9" s="2">
         <v>0.94</v>
       </c>
-      <c r="H9" s="1">
+      <c r="H9" s="2">
         <v>0.94200000000000006</v>
       </c>
-      <c r="I9" s="1">
+      <c r="I9" s="2">
         <v>0.98</v>
       </c>
-      <c r="J9" s="1">
+      <c r="J9" s="2">
         <v>0.98</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="A10" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="1">
         <v>8</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10" s="2">
         <v>0.81</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10" s="2">
         <v>0.76800000000000002</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E10" s="2">
         <v>0.77</v>
       </c>
-      <c r="F10" s="1">
+      <c r="F10" s="2">
         <v>0.76400000000000001</v>
       </c>
-      <c r="G10" s="1">
+      <c r="G10" s="2">
         <v>0.82499999999999996</v>
       </c>
-      <c r="H10" s="1">
+      <c r="H10" s="2">
         <v>0.87</v>
       </c>
-      <c r="I10" s="1">
+      <c r="I10" s="2">
         <v>0.93900000000000006</v>
       </c>
-      <c r="J10" s="1">
+      <c r="J10" s="2">
         <v>0.93900000000000006</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="A11" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="1">
         <v>7</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11" s="2">
         <v>0.82700000000000007</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D11" s="2">
         <v>0.74900000000000011</v>
       </c>
-      <c r="E11" s="1">
+      <c r="E11" s="2">
         <v>0.78099999999999992</v>
       </c>
-      <c r="F11" s="1">
+      <c r="F11" s="2">
         <v>0.82099999999999995</v>
       </c>
-      <c r="G11" s="1">
+      <c r="G11" s="2">
         <v>0.871</v>
       </c>
-      <c r="H11" s="1">
+      <c r="H11" s="2">
         <v>0.88400000000000001</v>
       </c>
-      <c r="I11" s="1">
+      <c r="I11" s="2">
         <v>0.95900000000000007</v>
       </c>
-      <c r="J11" s="1">
+      <c r="J11" s="2">
         <v>0.95900000000000007</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="A12" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="1">
         <v>9</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C12" s="2">
         <v>0.81849999999999989</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D12" s="2">
         <v>0.75849999999999995</v>
       </c>
-      <c r="E12" s="1">
+      <c r="E12" s="2">
         <v>0.77549999999999997</v>
       </c>
-      <c r="F12" s="1">
+      <c r="F12" s="2">
         <v>0.79249999999999998</v>
       </c>
-      <c r="G12" s="1">
+      <c r="G12" s="2">
         <v>0.84799999999999998</v>
       </c>
-      <c r="H12" s="1">
+      <c r="H12" s="2">
         <v>0.877</v>
       </c>
-      <c r="I12" s="1">
+      <c r="I12" s="2">
         <v>0.94900000000000007</v>
       </c>
-      <c r="J12" s="1">
+      <c r="J12" s="2">
         <v>0.94900000000000007</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="A13" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="1">
         <v>25</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C13" s="2">
         <v>0.81849999999999989</v>
       </c>
-      <c r="D13" s="1">
+      <c r="D13" s="2">
         <v>0.75849999999999995</v>
       </c>
-      <c r="E13" s="1">
+      <c r="E13" s="2">
         <v>0.77549999999999997</v>
       </c>
-      <c r="F13" s="1">
+      <c r="F13" s="2">
         <v>0.79249999999999998</v>
       </c>
-      <c r="G13" s="1">
+      <c r="G13" s="2">
         <v>0.84799999999999998</v>
       </c>
-      <c r="H13" s="1">
+      <c r="H13" s="2">
         <v>0.877</v>
       </c>
-      <c r="I13" s="1">
+      <c r="I13" s="2">
         <v>0.94900000000000007</v>
       </c>
-      <c r="J13" s="1">
+      <c r="J13" s="2">
         <v>0.94900000000000007</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="A14" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="1">
         <v>5</v>
       </c>
-      <c r="C14" s="1">
+      <c r="C14" s="2">
         <v>0.81</v>
       </c>
-      <c r="D14" s="1">
+      <c r="D14" s="2">
         <v>0.81</v>
       </c>
-      <c r="E14" s="1">
+      <c r="E14" s="2">
         <v>0.81</v>
       </c>
-      <c r="F14" s="1">
+      <c r="F14" s="2">
         <v>0.81</v>
       </c>
-      <c r="G14" s="1">
+      <c r="G14" s="2">
         <v>0.81</v>
       </c>
-      <c r="H14" s="1">
+      <c r="H14" s="2">
         <v>0.81</v>
       </c>
-      <c r="I14" s="1">
+      <c r="I14" s="2">
         <v>0.81</v>
       </c>
-      <c r="J14" s="1">
+      <c r="J14" s="2">
         <v>0.81</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="A15" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="1">
         <v>6</v>
       </c>
-      <c r="C15" s="1">
+      <c r="C15" s="2">
         <v>0.81</v>
       </c>
-      <c r="D15" s="1">
+      <c r="D15" s="2">
         <v>0.81</v>
       </c>
-      <c r="E15" s="1">
+      <c r="E15" s="2">
         <v>0.81</v>
       </c>
-      <c r="F15" s="1">
+      <c r="F15" s="2">
         <v>0.81</v>
       </c>
-      <c r="G15" s="1">
+      <c r="G15" s="2">
         <v>0.81</v>
       </c>
-      <c r="H15" s="1">
+      <c r="H15" s="2">
         <v>0.81</v>
       </c>
-      <c r="I15" s="1">
+      <c r="I15" s="2">
         <v>0.81</v>
       </c>
-      <c r="J15" s="1">
+      <c r="J15" s="2">
         <v>0.81</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="A16" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="1">
         <v>24</v>
       </c>
-      <c r="C16" s="1">
+      <c r="C16" s="2">
         <v>0.9</v>
       </c>
-      <c r="D16" s="1">
+      <c r="D16" s="2">
         <v>0.9</v>
       </c>
-      <c r="E16" s="1">
+      <c r="E16" s="2">
         <v>0.9</v>
       </c>
-      <c r="F16" s="1">
+      <c r="F16" s="2">
         <v>0.9</v>
       </c>
-      <c r="G16" s="1">
+      <c r="G16" s="2">
         <v>0.9</v>
       </c>
-      <c r="H16" s="1">
+      <c r="H16" s="2">
         <v>0.9</v>
       </c>
-      <c r="I16" s="1">
+      <c r="I16" s="2">
         <v>0.9</v>
       </c>
-      <c r="J16" s="1">
+      <c r="J16" s="2">
         <v>0.9</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="A17" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="1">
         <v>3</v>
       </c>
-      <c r="C17" s="1">
+      <c r="C17" s="2">
         <v>0.995</v>
       </c>
-      <c r="D17" s="1">
+      <c r="D17" s="2">
         <v>0.995</v>
       </c>
-      <c r="E17" s="1">
+      <c r="E17" s="2">
         <v>0.995</v>
       </c>
-      <c r="F17" s="1">
+      <c r="F17" s="2">
         <v>0.995</v>
       </c>
-      <c r="G17" s="1">
+      <c r="G17" s="2">
         <v>0.995</v>
       </c>
-      <c r="H17" s="1">
+      <c r="H17" s="2">
         <v>0.995</v>
       </c>
-      <c r="I17" s="1">
+      <c r="I17" s="2">
         <v>0.995</v>
       </c>
-      <c r="J17" s="1">
+      <c r="J17" s="2">
         <v>0.995</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="A18" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="1">
         <v>4</v>
       </c>
-      <c r="C18" s="1">
+      <c r="C18" s="2">
         <v>0.99849999999999994</v>
       </c>
-      <c r="D18" s="1">
+      <c r="D18" s="2">
         <v>0.99849999999999994</v>
       </c>
-      <c r="E18" s="1">
+      <c r="E18" s="2">
         <v>0.99849999999999994</v>
       </c>
-      <c r="F18" s="1">
+      <c r="F18" s="2">
         <v>0.99849999999999994</v>
       </c>
-      <c r="G18" s="1">
+      <c r="G18" s="2">
         <v>0.99849999999999994</v>
       </c>
-      <c r="H18" s="1">
+      <c r="H18" s="2">
         <v>0.99849999999999994</v>
       </c>
-      <c r="I18" s="1">
+      <c r="I18" s="2">
         <v>0.99849999999999994</v>
       </c>
-      <c r="J18" s="1">
+      <c r="J18" s="2">
         <v>0.99849999999999994</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>269</v>
-      </c>
-      <c r="B19">
-        <v>10</v>
-      </c>
-      <c r="C19" s="1">
+      <c r="A19" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="B19" s="1">
+        <v>11</v>
+      </c>
+      <c r="C19" s="2">
         <v>0.98</v>
       </c>
-      <c r="D19" s="1">
+      <c r="D19" s="2">
         <v>0.97199999999999998</v>
       </c>
-      <c r="E19" s="1">
+      <c r="E19" s="2">
         <v>0.97900000000000009</v>
       </c>
-      <c r="F19" s="1">
+      <c r="F19" s="2">
         <v>0.98299999999999998</v>
       </c>
-      <c r="G19" s="1">
+      <c r="G19" s="2">
         <v>0.97699999999999998</v>
       </c>
-      <c r="H19" s="1">
+      <c r="H19" s="2">
         <v>0.98499999999999999</v>
       </c>
-      <c r="I19" s="1">
+      <c r="I19" s="2">
         <v>0.99199999999999999</v>
       </c>
-      <c r="J19" s="1">
+      <c r="J19" s="2">
         <v>0.99199999999999999</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>261</v>
-      </c>
-      <c r="B20">
-        <v>11</v>
-      </c>
-      <c r="C20" s="1">
+      <c r="A20" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="B20" s="1">
+        <v>12</v>
+      </c>
+      <c r="C20" s="2">
         <v>0.98</v>
       </c>
-      <c r="D20" s="1">
+      <c r="D20" s="2">
         <v>0.97199999999999998</v>
       </c>
-      <c r="E20" s="1">
+      <c r="E20" s="2">
         <v>0.97900000000000009</v>
       </c>
-      <c r="F20" s="1">
+      <c r="F20" s="2">
         <v>0.98299999999999998</v>
       </c>
-      <c r="G20" s="1">
+      <c r="G20" s="2">
         <v>0.97699999999999998</v>
       </c>
-      <c r="H20" s="1">
+      <c r="H20" s="2">
         <v>0.98499999999999999</v>
       </c>
-      <c r="I20" s="1">
+      <c r="I20" s="2">
         <v>0.99199999999999999</v>
       </c>
-      <c r="J20" s="1">
+      <c r="J20" s="2">
         <v>0.99199999999999999</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>262</v>
-      </c>
-      <c r="B21">
-        <v>12</v>
-      </c>
-      <c r="C21" s="1">
+      <c r="A21" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="B21" s="1">
+        <v>13</v>
+      </c>
+      <c r="C21" s="2">
         <v>0.98</v>
       </c>
-      <c r="D21" s="1">
+      <c r="D21" s="2">
         <v>0.97199999999999998</v>
       </c>
-      <c r="E21" s="1">
+      <c r="E21" s="2">
         <v>0.97900000000000009</v>
       </c>
-      <c r="F21" s="1">
+      <c r="F21" s="2">
         <v>0.98299999999999998</v>
       </c>
-      <c r="G21" s="1">
+      <c r="G21" s="2">
         <v>0.97699999999999998</v>
       </c>
-      <c r="H21" s="1">
+      <c r="H21" s="2">
         <v>0.98499999999999999</v>
       </c>
-      <c r="I21" s="1">
+      <c r="I21" s="2">
         <v>0.99199999999999999</v>
       </c>
-      <c r="J21" s="1">
+      <c r="J21" s="2">
         <v>0.99199999999999999</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>263</v>
-      </c>
-      <c r="B22">
-        <v>13</v>
-      </c>
-      <c r="C22" s="1">
+      <c r="A22" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="B22" s="1">
+        <v>14</v>
+      </c>
+      <c r="C22" s="2">
         <v>0.98</v>
       </c>
-      <c r="D22" s="1">
+      <c r="D22" s="2">
         <v>0.97199999999999998</v>
       </c>
-      <c r="E22" s="1">
+      <c r="E22" s="2">
         <v>0.97900000000000009</v>
       </c>
-      <c r="F22" s="1">
+      <c r="F22" s="2">
         <v>0.98299999999999998</v>
       </c>
-      <c r="G22" s="1">
+      <c r="G22" s="2">
         <v>0.97699999999999998</v>
       </c>
-      <c r="H22" s="1">
+      <c r="H22" s="2">
         <v>0.98499999999999999</v>
       </c>
-      <c r="I22" s="1">
+      <c r="I22" s="2">
         <v>0.99199999999999999</v>
       </c>
-      <c r="J22" s="1">
+      <c r="J22" s="2">
         <v>0.99199999999999999</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>264</v>
-      </c>
-      <c r="B23">
-        <v>14</v>
-      </c>
-      <c r="C23" s="1">
-        <v>0.98</v>
-      </c>
-      <c r="D23" s="1">
-        <v>0.97199999999999998</v>
-      </c>
-      <c r="E23" s="1">
-        <v>0.97900000000000009</v>
-      </c>
-      <c r="F23" s="1">
-        <v>0.98299999999999998</v>
-      </c>
-      <c r="G23" s="1">
-        <v>0.97699999999999998</v>
-      </c>
-      <c r="H23" s="1">
-        <v>0.98499999999999999</v>
-      </c>
-      <c r="I23" s="1">
-        <v>0.99199999999999999</v>
-      </c>
-      <c r="J23" s="1">
-        <v>0.99199999999999999</v>
+      <c r="A23" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B23" s="1">
+        <v>15</v>
+      </c>
+      <c r="C23" s="2">
+        <v>0.997</v>
+      </c>
+      <c r="D23" s="2">
+        <v>0.997</v>
+      </c>
+      <c r="E23" s="2">
+        <v>1</v>
+      </c>
+      <c r="F23" s="2">
+        <v>0.99099999999999999</v>
+      </c>
+      <c r="G23" s="2">
+        <v>0.997</v>
+      </c>
+      <c r="H23" s="2">
+        <v>1</v>
+      </c>
+      <c r="I23" s="2">
+        <v>1</v>
+      </c>
+      <c r="J23" s="2">
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>265</v>
-      </c>
-      <c r="B24">
-        <v>15</v>
-      </c>
-      <c r="C24" s="1">
+      <c r="A24" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="B24" s="1">
+        <v>16</v>
+      </c>
+      <c r="C24" s="2">
         <v>0.997</v>
       </c>
-      <c r="D24" s="1">
+      <c r="D24" s="2">
         <v>0.997</v>
       </c>
-      <c r="E24" s="1">
+      <c r="E24" s="2">
         <v>1</v>
       </c>
-      <c r="F24" s="1">
+      <c r="F24" s="2">
         <v>0.99099999999999999</v>
       </c>
-      <c r="G24" s="1">
+      <c r="G24" s="2">
         <v>0.997</v>
       </c>
-      <c r="H24" s="1">
+      <c r="H24" s="2">
         <v>1</v>
       </c>
-      <c r="I24" s="1">
+      <c r="I24" s="2">
         <v>1</v>
       </c>
-      <c r="J24" s="1">
+      <c r="J24" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>266</v>
-      </c>
-      <c r="B25">
-        <v>16</v>
-      </c>
-      <c r="C25" s="1">
+      <c r="A25" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="B25" s="1">
+        <v>17</v>
+      </c>
+      <c r="C25" s="2">
         <v>0.997</v>
       </c>
-      <c r="D25" s="1">
+      <c r="D25" s="2">
         <v>0.997</v>
       </c>
-      <c r="E25" s="1">
+      <c r="E25" s="2">
         <v>1</v>
       </c>
-      <c r="F25" s="1">
+      <c r="F25" s="2">
         <v>0.99099999999999999</v>
       </c>
-      <c r="G25" s="1">
+      <c r="G25" s="2">
         <v>0.997</v>
       </c>
-      <c r="H25" s="1">
+      <c r="H25" s="2">
         <v>1</v>
       </c>
-      <c r="I25" s="1">
+      <c r="I25" s="2">
         <v>1</v>
       </c>
-      <c r="J25" s="1">
+      <c r="J25" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>267</v>
-      </c>
-      <c r="B26">
-        <v>17</v>
-      </c>
-      <c r="C26" s="1">
-        <v>0.997</v>
-      </c>
-      <c r="D26" s="1">
-        <v>0.997</v>
-      </c>
-      <c r="E26" s="1">
-        <v>1</v>
-      </c>
-      <c r="F26" s="1">
-        <v>0.99099999999999999</v>
-      </c>
-      <c r="G26" s="1">
-        <v>0.997</v>
-      </c>
-      <c r="H26" s="1">
-        <v>1</v>
-      </c>
-      <c r="I26" s="1">
-        <v>1</v>
-      </c>
-      <c r="J26" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+      <c r="A26" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="B27">
+      <c r="B26" s="1">
         <v>23</v>
       </c>
-      <c r="C27" s="1">
+      <c r="C26" s="2">
         <v>0.76</v>
       </c>
-      <c r="D27" s="1">
+      <c r="D26" s="2">
         <v>0.76</v>
       </c>
-      <c r="E27" s="1">
+      <c r="E26" s="2">
         <v>0.76</v>
       </c>
-      <c r="F27" s="1">
+      <c r="F26" s="2">
         <v>0.76</v>
       </c>
-      <c r="G27" s="1">
+      <c r="G26" s="2">
         <v>0.76</v>
       </c>
-      <c r="H27" s="1">
+      <c r="H26" s="2">
         <v>0.76</v>
       </c>
-      <c r="I27" s="1">
+      <c r="I26" s="2">
         <v>0.76</v>
       </c>
-      <c r="J27" s="1">
+      <c r="J26" s="2">
         <v>0.76</v>
       </c>
     </row>
